--- a/biology/Zoologie/Drépanide_noir/Drépanide_noir.xlsx
+++ b/biology/Zoologie/Drépanide_noir/Drépanide_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr%C3%A9panide_noir</t>
+          <t>Drépanide_noir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Drepanis funerea
 Le Drépanide noir est une espèce de passereau aujourd'hui disparue qui vivait sur l'île de Molokai dans l'archipel Hawaïen. On connaît des fossiles venant de l'île voisine de Maui. Les derniers spécimens ont été récoltés en 1907, des recherches intensives menées ultérieurement n'ont pu en observer d'autres. Son extinction est probablement liée à la destruction de son habitat et l'introduction de divers animaux (bétails, rats, mangoustes).
